--- a/output/nestle.xlsx
+++ b/output/nestle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,7 @@
           <t>Nestle Nan Optipro, Follow-up Formula, Stage - 2, 400g, 6 to 12 months</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;During the first year of life, nutrition is critical for your baby.&lt;/li&gt;
@@ -511,72 +501,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank" rel="noopener noreferrer"&gt;&lt;span style="color: #1e2d7d;"&gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>nestle-nan-optipro-follow-up-formula-stage-2-400g-6-to-12-months</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Nestle Pre Nan for Premature Babies, Low Birth Weight Infant Formula (Less Than 2.5kg) 400g</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Nestle Pre nan is a spray-dried infant formula for premature/low birth weight infants during and after hospital discharge.&lt;/li&gt;
@@ -607,72 +557,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>nestle-pre-nan-for-premature-babies-low-birth-weight-infant-formula-less-than-2-5kg-400g</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>NESTLE Nan pro infant formula stage 1, up to 6 months - 400g</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Easy to digest nan pro infant milk substitute with stage 1 formula&lt;/li&gt;
@@ -706,72 +616,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>nestle-nan-pro-infant-formula-stage-1-0-t0-6-months-400g</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NESTLE Nan Optipro Starter Infant Formula Stage -1 - 400g, 0 to 6months</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;During the first year of life, nutrition is critical for your baby.&lt;/li&gt;
@@ -802,72 +672,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank" rel="noopener noreferrer"&gt;&lt;span style="color: #1e2d7d;"&gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>nestle-nan-optipro-starter-infant-formula-stage-1-400g-0-to-6months</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Nestle Nan Optipro Starter, Follow-up Formula, Stage -3, 400g, 1 to 3 Years</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;During the first year of life, nutrition is critical for your baby.&lt;/li&gt;
@@ -898,72 +728,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>products-nestle-nan-optipro-starter-follow-up-formula-stage-3-400g-1-to-3-years</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Nan Pro Infant Formula Stage - 1 , 800g, 0 to 6 months (Imported)</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;During the first year of life, nutrition is critical for your baby.&lt;/li&gt;
@@ -994,72 +784,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>nan-pro-infant-formula-stage-1-800g-0-to-6-months-imported</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>NESTLE Lactogen Infant Formula Stage-2  After 6 Months 400g</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Healthy baby milk substitute formula ideal feed for weaning babies&lt;/li&gt;
@@ -1087,72 +837,32 @@
 &lt;p&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy :&lt;/span&gt; &lt;span style="color: #f70808;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>nestle-lactogen-infant-formula-stage-2-after-6-months-400g</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>NESTLE Nan Pro Infant Formula Stage 1 (up to 6 Months) 400g</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Easy to digest stage 1 baby milk substitute formula&lt;/li&gt;
@@ -1179,72 +889,32 @@
 &lt;p&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy :&lt;/span&gt; &lt;span style="color: #f70b0b;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>nestle-nan-pro-infant-formula-stage-1-400g-upto-6-months</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>NESTLE Lactogen Infant Formula Stage - 1  (Up to 6 Months) - 400g Tin Pack</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -1273,72 +943,32 @@
 &lt;p&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy :&lt;/span&gt; &lt;span style="color: #fc1010;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>nestle-lactogen-infant-formula-stage-1-up-to-6-months-400g-tin-pack</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>NESTLE Nan Pro Infant Formula Stage 2 After 6 months 400g</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Healthy baby milk substitute formula ideal for weaning babies&lt;/li&gt;
@@ -1366,72 +996,32 @@
 &lt;p&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;R&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;eturn Policy:&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;strong&gt; &lt;span style="color: #f91010;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>nestle-nan-pro-infant-formula-stage-2-after-6-months-400g</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>NESTLE Nido One Plus Growing-Up Formula 1-3 Years,400g</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Nutrional Growing up Milk Formula for toddlers&lt;/li&gt;
@@ -1467,72 +1057,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/exchange-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>nestle-nido-one-plus-growing-up-formula-1-3-years-400g</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>NESTLE Lactogen Infant Formula Stage - 1  (Up to 6 Months) 400g</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -1566,72 +1116,32 @@
 --&gt;&lt;/style&gt;</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>nestle-lactogen-infant-formula-stage-1-upto-6-months-400g</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>NESTLE Nan Pro Infant Formula Stage 3 After 12 Months 400g</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Introducing Nan Pro, the ultimate solution for the careful and hygienic preparation of infant formula.&lt;/li&gt;
@@ -1655,72 +1165,32 @@
 &lt;p&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f60a0a;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>nestle-nan-pro-infant-formula-stage-3-after-12-months-400g</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>NESTLE Lactogen Infant Formula Stage-3  After 12Months 400g</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Healthy baby milk substitute formula ideal feed for weaning babies&lt;/li&gt;
@@ -1747,72 +1217,32 @@
 &lt;p&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy :&lt;/span&gt; &lt;span style="color: #f40d0d;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>nestle-lactogen-infant-formula-stage-3-after-12months-400g</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Nestle Nan Optipro Starter, Follow-up Formula, Stage -4, 400g, 3 to 6 Years</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;During the first year of life, nutrition is critical for your baby.&lt;/li&gt;
@@ -1843,72 +1273,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>nestle-nan-optipro-starter-follow-up-formula-stage-4-400g-3-to-6-years</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>NESTLE Nido One Plus Growing-Up Formula 1-3 Years, 900g</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Nutrional Growing up Milk Formula for toddlers&lt;br&gt;
@@ -1961,72 +1351,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;" &gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/exchange-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;" &gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;" &gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>nestle-nido-one-plus-growing-up-formula-1-3-years-900g</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>NESTLE Lactogen Infant Formula Stage - 4 (18 to 24Months) 400g</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Healthy baby milk substitute formula ideal feed for weaning babies&lt;/li&gt;
@@ -2053,72 +1403,32 @@
 &lt;p&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy :&lt;/span&gt; &lt;span style="color: #fc1010;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>nestle-lactogen-infant-formula-stage-4-18-to-24months-400g</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>NESTLE Lactogen Infant Formula Stage-2  After 6 Months (400g Tin Pack)</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Healthy baby milk substitute formula ideal feed for weaning babies&lt;/li&gt;
@@ -2147,72 +1457,32 @@
 &lt;p&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy :&lt;/span&gt; &lt;span style="color: #f70808;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>nestle-lactogen-infant-formula-stage-2-after-6-months-400g-tin-pack</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Nestle Nan Pro Infant Baby Formula Stage 4, 18 to 24 Months - 400g</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Healthy Infant Baby Formula ideal for weaning babies&lt;/li&gt;
@@ -2247,72 +1517,32 @@
 &lt;p&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy :&lt;/span&gt; &lt;span style="color: #f60a0a;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>nestle-nan-pro-infant-baby-formula-stage-4-18-to-24-months-400g</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Nan Pro Infant Formula Stage - 2 , 800g, 6 to 12 months (Imported)</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;During the first year of life, nutrition is critical for your baby.&lt;/li&gt;
@@ -2343,72 +1573,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>nan-pro-infant-formula-stage-2-800g-6-to-12-months-imported</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Nestle Excellapro infant formula stage 1, up to 6 months - 400g</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Easy to digest nan excellapro infant milk substitute with stage 1 formula&lt;/li&gt;
@@ -2442,47 +1632,17 @@
 &lt;p&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;" &gt;Disclaimer:&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" data-mce-href="https://www.uyyaala.com/pages/return-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;" &gt;&lt;strong&gt;Return Policy&lt;/strong&gt;:&lt;/span&gt;&lt;strong&gt; &lt;span style="color: #ff2a00;" &gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Nestle</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Nestle</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>nestle-excellapro-infant-formula-stage-1-up-to-6-months-400g</t>
         </is>
